--- a/medicine/Mort/Décès_en_1961/Décès_en_1961.xlsx
+++ b/medicine/Mort/Décès_en_1961/Décès_en_1961.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1961</t>
+          <t>Décès_en_1961</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1961</t>
+          <t>Décès_en_1961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date précise inconnue
-Fernand Andrey-Prévost, peintre paysagiste français (° 1890).
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fernand Andrey-Prévost, peintre paysagiste français (° 1890).
 Charles-Pierre Bernard, peintre français (° 1882).
 Armand Brugnaud, peintre français (° 1899).
 Julien Duvocelle, peintre français (° 1873).
@@ -537,9 +554,43 @@
 Marthe Galard, peintre française (° 1884).
 Cesare Maggi, peintre italien (° 1881).
 Agnes de Silva, militante féministe srilankaise pour les droits des femmes (° 1885).
-Ágis Théros, poète, sociologue, folkloriste et homme politique grec (° 1875).
-Janvier
-4 janvier :
+Ágis Théros, poète, sociologue, folkloriste et homme politique grec (° 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>4 janvier :
 Camillo Innocenti, peintre italien (° 14 juin 1871).
 Erwin Schrödinger, prix Nobel de physique en 1933 (° 12 août 1887).
 10 janvier :
@@ -563,9 +614,43 @@
 25 janvier : Nadejda Oudaltsova, peintre et dessinatrice russe puis soviétique (° 10 janvier 1886).
 29 janvier : Jesse Wallace, homme politique américain (° 17 juillet 1899).
 30 janvier : Maud Stevens Wagner, artiste de cirque américaine (° février 1877).
-31 janvier : Diego Hidalgo y Durán, homme politique, juriste et auteur espagnol (° 13 février 1886).
-Février
-3 février : William Shepherd Morrison, gouverneur général d'Australie (° 8 octobre 1893).
+31 janvier : Diego Hidalgo y Durán, homme politique, juriste et auteur espagnol (° 13 février 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>3 février : William Shepherd Morrison, gouverneur général d'Australie (° 8 octobre 1893).
 4 février : Scott LaFaro, contrebassiste de jazz américain (° 3 avril 1936).
 6 février : Georges Aubert, peintre et sculpteur suisse (° 30 avril 1886).
 9 février : Oscar Egg, coureur cycliste suisse (° 2 mars 1890).
@@ -578,17 +663,85 @@
 Zakaria Ahmed, musicien, compositeur et chanteur égyptien (° 6 janvier 1896).
 Wallis Clark, acteur britannique (° 2 mars 1882).
 17 février : Elías Lafertte, syndicaliste communiste et sénateur chilien (° 19 décembre 1886).
-26 février : Mohammed V, roi du Maroc (° 10 août 1909).
-Mars
-2 mars : Jean Oberlé, peintre et illustrateur français (° 12 janvier 1900).
+26 février : Mohammed V, roi du Maroc (° 10 août 1909).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 mars : Jean Oberlé, peintre et illustrateur français (° 12 janvier 1900).
 6 mars : Florenz Ames, acteur américain (° 6 janvier 1883).
 7 mars : Paul Loubradou, peintre et homme politique français (° 8 octobre 1883).
 20 mars : Jean-Jacques Haffner, aquarelliste, professeur d'architecture et architecte français (° 17 juin 1885).
 23 mars : Valentin Bondarenko, cosmonaute russe (° 16 février 1937).
 24 mars : Walter Wilhelm Goetze, compositeur allemand d'opérettes (° 17 avril 1883).
-27 mars : Paul Landowski, sculpteur français d'origine polonaise (° 4 juin 1875).
-Avril
-2 avril : Wallingford Riegger, compositeur américain (° 29 avril 1885).
+27 mars : Paul Landowski, sculpteur français d'origine polonaise (° 4 juin 1875).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Wallingford Riegger, compositeur américain (° 29 avril 1885).
 7 avril :
 Vanessa Bell, peintre et architecte d'intérieur britannique (° 30 mai 1879).
 Jesús Guridi, compositeur et organiste espagnol, professeur de musique basque (° 25 septembre 1886).
@@ -599,9 +752,43 @@
 16 avril : Martien Houtkooper, footballeur international néerlandais (° 27 octobre 1891).
 19 avril : Manuel Quiroga Losada, violoniste et compositeur espagnol (° 15 avril 1892).
 24 avril : Paul Iské, peintre français (° 28 juillet 1877).
-29 avril : Miff Mole, musicien de jazz américain (° 11 mars 1898).
-Mai
-3 mai : Maurice Merleau-Ponty, philosophe français (° 14 mars 1908).
+29 avril : Miff Mole, musicien de jazz américain (° 11 mars 1898).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3 mai : Maurice Merleau-Ponty, philosophe français (° 14 mars 1908).
 4 mai : Karol Šovánka, peintre et sculpteur austro-hongrois puis tchécoslovaque (° 7 mars 1893).
 5 mai : Alessandro Fantini, coureur cycliste italien (° 1er janvier 1932).
 8 mai : James Fairfax, acteur britannique (° 10 août 1897).
@@ -615,9 +802,43 @@
 22 mai : Joan Davis, actrice américaine (° 29 juin 1900).
 23 mai : Oswald Lehnich, homme politique allemand (° 20 juin 1895).
 29 mai : Uuno Klami, compositeur finlandais (° 20 septembre 1907).
-31 mai : Eduard Toldrà, chef d'orchestre et compositeur espagnol (° 7 avril 1895).
-Juin
-2 juin : Pierre Brette, peintre français (° 23 février 1905).
+31 mai : Eduard Toldrà, chef d'orchestre et compositeur espagnol (° 7 avril 1895).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juin : Pierre Brette, peintre français (° 23 février 1905).
 4 juin : Alice Voinescu, écrivaine, essayiste et philosophe roumaine (° 10 février 1885).
 6 juin : Carl Jung, psychologue suisse (° 26 juillet 1875).
 7 juin : Rodrigo Facio, homme politique costaricien (° 26 mars 1917).
@@ -626,9 +847,43 @@
 21 juin : Abdelkader Mesli, imam et résistant français durant la Seconde Guerre mondiale (° 1902).
 23 juin : Oscar Eichacker, sculpteur, peintre et graveur français, professeur aux Beaux-Arts de Marseille (° 21 janvier 1881).
 26 juin : Hélène Dutrieu, cycliste, motocycliste, coureuse automobile et aviatrice belge (° 10 juillet 1877).
-27 juin : Pierre-Paul Montagnac, peintre et architecte décorateur français (° 9 mai 1883).
-Juillet
-1er juillet : Louis-Ferdinand Céline, écrivain français (° 27 mai 1894).
+27 juin : Pierre-Paul Montagnac, peintre et architecte décorateur français (° 9 mai 1883).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Louis-Ferdinand Céline, écrivain français (° 27 mai 1894).
 2 juillet : Ernest Hemingway, écrivain américain (° 21 juillet 1899).
 6 juillet : Cuno Amiet, peintre suisse (° 28 mars 1868).
 7 juillet : Israël Shohat, homme politique israélien (° 30 janvier 1886).
@@ -641,9 +896,43 @@
 26 juillet : Latino Barilli, peintre italien  (° 1883).
 27 juillet : Lucy Hayes Herron, golfeuse amatrice américaine (° 8 novembre 1877).
 30 juillet : Domenico Tardini, cardinal italien, secrétaire d'État du Vatican (° 29 février 1888).
-31 juillet : Paul Deman, coureur cycliste belge (° 25 avril 1889).
-Août
-1er août :
+31 juillet : Paul Deman, coureur cycliste belge (° 25 avril 1889).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août :
 Philip Stainton, acteur britannique (° 9 avril 1908).
 Adri Voorting, coureur cycliste néerlandais (° 15 février 1931).
 3 août : Nicola Canali, cardinal italien de la Curie romaine (° 6 juin 1874).
@@ -657,9 +946,43 @@
 28 août :
 Gaston Gabaroche, acteur, chanteur et musicien français (° 29 septembre 1884).
 Gustave Lino, peintre français (° 27 octobre 1893).
-31 août : Michele Cozzoli, compositeur, chef d'orchestre et arrangeur italien (° 3 mai 1915)
-Septembre
-1er septembre :
+31 août : Michele Cozzoli, compositeur, chef d'orchestre et arrangeur italien (° 3 mai 1915)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre :
 René Bernard-Cothier, homme politique français (° 3 avril 1894).
 Eero Saarinen, architecte et designer américain d'origine finlandaise (° 20 août 1910).
 5 septembre : Auguste Goichon, peintre et illustrateur français (° 19 avril 1890).
@@ -675,9 +998,43 @@
 Raphaël Binet, photographe français (° 18 mars 1880).
 27 septembre : Hilda Doolittle, dite H.D., poétesse américaine (° 10 septembre 1886).
 28 septembre : Charles Arthur Banks, homme politique canadien (° 18 mai 1885).
-? septembre : George Tuisawau, chef autochtone fidjien  (° vers 1901).
-Octobre
-2 octobre : Edna Gladney, militante américaine (° 22 janvier 1886).
+? septembre : George Tuisawau, chef autochtone fidjien  (° vers 1901).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2 octobre : Edna Gladney, militante américaine (° 22 janvier 1886).
 10 octobre : Lewin Fitzhamon, réalisateur, scénariste et acteur britannique (° 5 juin 1869).
 11 octobre : Chico Marx, comédien américain (° 22 mars 1887).
 13 octobre :
@@ -691,9 +1048,43 @@
 23 octobre : Jeanne Bergson, dessinatrice, peintre et sculptrice française (° 16 mars 1893).
 24 octobre : Saturnin Fabre, comédien français (° 4 avril 1884).
 29 octobre : Kalle Kauppi, professeur d'université et homme politique finlandais (° 10 mars 1892).
-30 octobre : El Niño de la Palma (Cayetano Ordóñez y Aguilera), matador espagnol (° 4 janvier 1904).
-Novembre
-3 novembre : Henri Hirschmann, compositeur français (° 30 avril 1872).
+30 octobre : El Niño de la Palma (Cayetano Ordóñez y Aguilera), matador espagnol (° 4 janvier 1904).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3 novembre : Henri Hirschmann, compositeur français (° 30 avril 1872).
 9 novembre : Yann Mari Normand, poète français (° 15 février 1886).
 12 novembre :
 Salah Benacer, homme politique algérien (° 6 juillet 1900).
@@ -709,9 +1100,43 @@
 Agustín Eizaguirre Ostolaza, footballeur espagnol (° 7 octobre 1897).
 Eugène Thiery, peintre français (° 18 août 1875).
 29 novembre : Émile Dahan, footballeur français (° 8 septembre 1921).
-30 novembre : Roger Pénau, compositeur français (° 30 juin 1886).
-Décembre
-9 décembre : Kosta Hakman, peintre serbe puis yougoslave (° 22 mai 1899).
+30 novembre : Roger Pénau, compositeur français (° 30 juin 1886).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1961</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1961</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>9 décembre : Kosta Hakman, peintre serbe puis yougoslave (° 22 mai 1899).
 12 décembre : Carl Hermann, cristallographe allemand (° 17 juin 1898).
 14 décembre : Aribert Wäscher, acteur allemand (° 1er décembre 1895).
 16 décembre : Kunitarō Suda, peintre japonais (° 6 juin 1891).
